--- a/Dados semanais com gráficos.xlsx
+++ b/Dados semanais com gráficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab19778ff6fa8e3f/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CD0323FD-5F08-4711-8DA8-A123DF3DE36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8021DB5E-52BC-47CB-B0C2-BA0D99152A4F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{CD0323FD-5F08-4711-8DA8-A123DF3DE36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9565F074-967E-4ACC-A3F5-128CC44FAD5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>NumeroSemana</t>
   </si>
@@ -4158,6 +4158,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8261,20 +8265,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8447,7 +8454,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -8469,7 +8476,7 @@
         <v>5980</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8480,7 +8487,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -8491,7 +8498,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -8502,7 +8509,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8513,7 +8520,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -8524,7 +8531,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -8535,7 +8542,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -8546,7 +8553,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -8556,8 +8563,9 @@
       <c r="C26" s="3">
         <v>3242</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -8568,7 +8576,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -8590,7 +8598,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>9205</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -8612,7 +8620,7 @@
         <v>6261.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -12024,8 +12032,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12033,9 +12041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
